--- a/data/trans_camb/IP1020-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1020-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,91</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,9</t>
+          <t>-0,23; 3,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 3,1</t>
+          <t>-0,3; 2,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,59</t>
+          <t>0,89; 6,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,7</t>
+          <t>0,06; 4,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,15</t>
+          <t>-1,68; 1,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,04</t>
+          <t>0,51; 5,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,32</t>
+          <t>0,42; 3,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 2,04</t>
+          <t>-0,38; 1,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,03</t>
+          <t>1,35; 5,02</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>69,66%</t>
+          <t>220,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>183,39%</t>
+          <t>200,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>388,09%</t>
+          <t>549,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,44%</t>
+          <t>229,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>72,38%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>344,88%</t>
+          <t>270,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>47,51%</t>
+          <t>226,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>124,97%</t>
+          <t>75,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>364,8%</t>
+          <t>373,45%</t>
         </is>
       </c>
     </row>
@@ -1012,49 +1012,49 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,52; 1575,43</t>
+          <t>-73,87; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,04; 2035,96</t>
+          <t>-17,05; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,4; 1380,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-83,69; 910,4</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,68; 1844,42</t>
+          <t>-18,47; 1604,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,32; 454,19</t>
+          <t>5,65; 1002,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 559,91</t>
+          <t>-51,39; 648,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>105,76; 1375,88</t>
+          <t>77,83; 1394,13</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>2,59</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 3,22</t>
+          <t>-0,63; 1,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,79</t>
+          <t>-0,02; 3,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,03</t>
+          <t>1,03; 4,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 4,8</t>
+          <t>-1,08; 1,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,46</t>
+          <t>-0,76; 2,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,77</t>
+          <t>0,93; 5,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,22</t>
+          <t>-0,5; 1,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,9</t>
+          <t>-0,04; 2,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,35; 5,02</t>
+          <t>1,39; 4,03</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>220,26%</t>
+          <t>69,66%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>200,09%</t>
+          <t>183,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>549,14%</t>
+          <t>388,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>229,46%</t>
+          <t>27,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>72,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>270,7%</t>
+          <t>344,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>226,55%</t>
+          <t>47,51%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>75,95%</t>
+          <t>124,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>373,45%</t>
+          <t>364,8%</t>
         </is>
       </c>
     </row>
@@ -1228,42 +1228,42 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-73,87; —</t>
+          <t>-43,52; 1575,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,05; —</t>
+          <t>26,04; 2035,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 1380,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-83,69; 910,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 1604,52</t>
+          <t>18,68; 1844,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,65; 1002,78</t>
+          <t>-56,32; 454,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-51,39; 648,11</t>
+          <t>-22,45; 559,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>77,83; 1394,13</t>
+          <t>105,76; 1375,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1020-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1020-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>0,37</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,55</t>
+          <t>-4,46; 0,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,92</t>
+          <t>-3,36; 2,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 4,42</t>
+          <t>-5,58; -0,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,43</t>
+          <t>1,8; 7,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,76</t>
+          <t>0,41; 3,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 5,95</t>
+          <t>0,86; 8,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 2,91</t>
+          <t>-0,55; 3,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,79</t>
+          <t>-1,24; 2,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,16</t>
+          <t>-1,41; 2,84</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,0%</t>
+          <t>-60,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>-6,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>105,36%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>502,83%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>168,73%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>424,93%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>128,11%</t>
+          <t>101,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,08%</t>
+          <t>43,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>192,17%</t>
+          <t>30,68%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-80,05; 333,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-76,63; 531,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,6; 673,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,75; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,82; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,88; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 495,42</t>
+          <t>-38,09; 812,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,05; 380,58</t>
+          <t>-71,98; 479,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,48; 689,54</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>3,45</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 3,22</t>
+          <t>-0,21; 3,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,79</t>
+          <t>-0,52; 2,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,03</t>
+          <t>1,76; 7,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 4,8</t>
+          <t>0,78; 5,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,46</t>
+          <t>-1,01; 2,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,77</t>
+          <t>0,48; 6,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,22</t>
+          <t>0,84; 3,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,9</t>
+          <t>-0,29; 1,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 5,02</t>
+          <t>1,74; 5,7</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>220,26%</t>
+          <t>177,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>200,09%</t>
+          <t>118,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>549,14%</t>
+          <t>558,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>229,46%</t>
+          <t>294,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>54,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>270,7%</t>
+          <t>262,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>226,55%</t>
+          <t>237,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>75,95%</t>
+          <t>82,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>373,45%</t>
+          <t>391,62%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-55,36; 1162,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-73,87; —</t>
+          <t>-66,7; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,05; —</t>
+          <t>52,06; 2601,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 1380,62</t>
+          <t>17,84; 1394,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-71,62; 659,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 1604,52</t>
+          <t>-0,43; 1590,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 1002,78</t>
+          <t>35,8; 732,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,39; 648,11</t>
+          <t>-34,67; 410,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>77,83; 1394,13</t>
+          <t>105,13; 1167,1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>3,79</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,9</t>
+          <t>0,42; 4,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 3,1</t>
+          <t>0,57; 4,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,59</t>
+          <t>2,54; 8,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,7</t>
+          <t>-2,11; 2,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,15</t>
+          <t>-2,4; 1,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,04</t>
+          <t>-0,07; 5,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,32</t>
+          <t>-0,25; 2,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 2,04</t>
+          <t>-0,31; 2,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,03</t>
+          <t>1,97; 6,04</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>69,66%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>183,39%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>388,09%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,44%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>72,38%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>344,88%</t>
+          <t>237,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>47,51%</t>
+          <t>185,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>124,97%</t>
+          <t>161,05%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>364,8%</t>
+          <t>708,52%</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,52; 1575,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,04; 2035,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1243,34 +1243,34 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-83,69; 910,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,68; 1844,42</t>
+          <t>-47,27; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-56,32; 454,19</t>
+          <t>-70,48; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 559,91</t>
+          <t>-71,29; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>105,76; 1375,88</t>
+          <t>101,36; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>1,75</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,38</t>
+          <t>-1,89; 0,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 1,9</t>
+          <t>-0,94; 2,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,75</t>
+          <t>-0,52; 3,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,04</t>
+          <t>-1,27; 1,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,47</t>
+          <t>-1,03; 2,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,33</t>
+          <t>0,47; 4,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,85</t>
+          <t>-1,18; 0,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,04; 1,35</t>
+          <t>-0,55; 1,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,51</t>
+          <t>0,46; 3,11</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>56,77%</t>
+          <t>-51,82%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>91,04%</t>
+          <t>76,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>269,97%</t>
+          <t>120,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>226,84%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>66,41%</t>
+          <t>67,06%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>339,77%</t>
+          <t>351,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>134,25%</t>
+          <t>-27,37%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>79,79%</t>
+          <t>71,73%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>301,49%</t>
+          <t>217,52%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,49; 260,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 346,06</t>
+          <t>-100,0; 764,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>87,34; 732,52</t>
+          <t>-56,36; 851,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>48,72; 745,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,3; 324,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>99,29; 956,81</t>
+          <t>-8,08; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>37,91; 316,97</t>
+          <t>-100,0; 264,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 251,82</t>
+          <t>-57,4; 605,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>155,75; 615,85</t>
+          <t>2,05; 821,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,41</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,29; 1,42</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 1,82</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 3,98</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 3,03</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 1,31</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1,45; 4,22</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0,39; 1,84</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,0; 1,3</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,55; 3,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>56,77%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>91,04%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>269,97%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>226,84%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>66,41%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>339,77%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>134,25%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>79,79%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>301,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-29,61; 264,6</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-17,79; 319,76</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>79,85; 774,92</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>44,02; 707,57</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-36,71; 296,54</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>100,67; 1040,0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>28,23; 297,7</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-3,34; 232,28</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>123,24; 580,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP1020-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1020-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 0,7</t>
+          <t>-4,27; 0,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 2,57</t>
+          <t>-3,44; 2,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,58; -0,59</t>
+          <t>-5,1; -0,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,16</t>
+          <t>1,8; 7,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,82</t>
+          <t>0,4; 4,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 8,89</t>
+          <t>0,86; 9,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 3,15</t>
+          <t>-0,61; 3,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,11</t>
+          <t>-1,22; 2,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 2,84</t>
+          <t>-1,38; 3,21</t>
         </is>
       </c>
     </row>
@@ -796,37 +796,37 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-86,64; 383,99</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,09; 812,88</t>
+          <t>-38,66; 781,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-71,98; 479,54</t>
+          <t>-68,48; 556,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 3,17</t>
+          <t>-0,26; 3,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,47</t>
+          <t>-0,56; 2,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 7,41</t>
+          <t>1,9; 7,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 5,56</t>
+          <t>0,85; 5,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,2</t>
+          <t>-1,07; 2,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 6,01</t>
+          <t>0,47; 5,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,52</t>
+          <t>0,81; 3,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,98</t>
+          <t>-0,28; 1,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,7</t>
+          <t>1,76; 5,76</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,36; 1162,93</t>
+          <t>-51,5; 1179,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-66,7; —</t>
+          <t>-75,09; 956,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,06; 2601,45</t>
+          <t>75,84; 2339,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,84; 1394,33</t>
+          <t>10,64; 1630,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,62; 659,78</t>
+          <t>-71,49; 634,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1590,71</t>
+          <t>-2,84; 1614,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,8; 732,68</t>
+          <t>30,48; 783,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,67; 410,93</t>
+          <t>-30,62; 404,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>105,13; 1167,1</t>
+          <t>93,67; 1191,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,62</t>
+          <t>0,41; 4,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,12</t>
+          <t>0,37; 4,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,54; 8,0</t>
+          <t>2,65; 8,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,1</t>
+          <t>-2,24; 2,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 1,68</t>
+          <t>-2,51; 1,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 5,89</t>
+          <t>0,13; 5,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 2,5</t>
+          <t>-0,19; 2,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 2,12</t>
+          <t>-0,38; 2,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,04</t>
+          <t>2,08; 6,13</t>
         </is>
       </c>
     </row>
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,27; —</t>
+          <t>-52,27; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-70,48; —</t>
+          <t>-76,23; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-71,29; —</t>
+          <t>-76,28; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>101,36; —</t>
+          <t>108,18; —</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,72</t>
+          <t>-1,8; 0,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,79</t>
+          <t>-0,96; 2,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,0</t>
+          <t>-0,59; 2,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,78</t>
+          <t>-1,39; 1,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,31</t>
+          <t>-1,09; 2,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,85</t>
+          <t>0,52; 4,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,73</t>
+          <t>-1,16; 0,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 1,94</t>
+          <t>-0,62; 1,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,11</t>
+          <t>0,4; 3,26</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 764,08</t>
+          <t>-100,0; 742,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-56,36; 851,8</t>
+          <t>-67,18; 1240,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,22 +1464,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,08; —</t>
+          <t>-26,56; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 264,64</t>
+          <t>-100,0; 393,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-57,4; 605,73</t>
+          <t>-58,71; 569,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,05; 821,24</t>
+          <t>-0,71; 865,58</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,42</t>
+          <t>-0,38; 1,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 1,82</t>
+          <t>-0,02; 1,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,98</t>
+          <t>1,15; 3,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,03</t>
+          <t>0,82; 3,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,31</t>
+          <t>-0,28; 1,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,22</t>
+          <t>1,47; 4,2</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,84</t>
+          <t>0,43; 1,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 1,3</t>
+          <t>0,07; 1,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,47</t>
+          <t>1,74; 3,57</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-29,61; 264,6</t>
+          <t>-36,18; 269,11</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 319,76</t>
+          <t>-10,19; 349,38</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>79,85; 774,92</t>
+          <t>78,22; 695,68</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>44,02; 707,57</t>
+          <t>48,02; 668,37</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-36,71; 296,54</t>
+          <t>-31,82; 362,54</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>100,67; 1040,0</t>
+          <t>99,04; 952,75</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>28,23; 297,7</t>
+          <t>34,73; 307,24</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 232,28</t>
+          <t>3,74; 236,45</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>123,24; 580,11</t>
+          <t>140,44; 580,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1020-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1020-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,34 +632,34 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,91</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-1,35</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-0,14</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>-2,24</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,91</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,36</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,16</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
           <t>1,21</t>
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,31</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 0,71</t>
+          <t>1,78; 7,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 2,61</t>
+          <t>0,4; 3,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,1; -0,55</t>
+          <t>0,82; 8,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,28</t>
+          <t>-4,19; 0,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,11</t>
+          <t>-3,42; 3,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,24</t>
+          <t>-5,59; -0,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 3,15</t>
+          <t>-0,72; 3,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 2,21</t>
+          <t>-1,39; 2,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,21</t>
+          <t>-1,47; 2,72</t>
         </is>
       </c>
     </row>
@@ -738,34 +738,34 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-60,24%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-6,43%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
           <t>101,45%</t>
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>25,65%</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-86,64; 383,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,22 +811,22 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-88,39; 538,2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 781,8</t>
+          <t>-53,1; 710,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-68,48; 556,21</t>
+          <t>-73,56; 531,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,99</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,61</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,32</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,89</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,16</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,99</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>3,39</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,23</t>
+          <t>0,77; 5,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,46</t>
+          <t>-0,9; 2,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 7,85</t>
+          <t>0,36; 6,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,64</t>
+          <t>-0,12; 3,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 2,28</t>
+          <t>-0,47; 2,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 5,91</t>
+          <t>1,7; 7,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,63</t>
+          <t>0,79; 3,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,92</t>
+          <t>-0,36; 1,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,76</t>
+          <t>1,77; 5,54</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>294,69%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>54,49%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>257,28%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>177,25%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>118,92%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>558,98%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>294,69%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>54,49%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>262,84%</t>
+          <t>548,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>391,62%</t>
+          <t>385,11%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-51,5; 1179,29</t>
+          <t>8,07; 1530,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-75,09; 956,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,84; 2339,0</t>
+          <t>-21,15; 1383,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,64; 1630,36</t>
+          <t>-43,56; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,49; 634,19</t>
+          <t>-74,04; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 1614,85</t>
+          <t>71,64; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,48; 783,86</t>
+          <t>40,69; 701,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,62; 404,3</t>
+          <t>-38,78; 374,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93,67; 1191,18</t>
+          <t>102,04; 1033,8</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>1,83</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>1,67</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,77</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,0</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>3,82</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,49</t>
+          <t>-2,15; 1,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,1</t>
+          <t>-2,36; 1,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,12</t>
+          <t>-0,05; 5,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,02</t>
+          <t>0,6; 4,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,72</t>
+          <t>0,38; 4,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 5,81</t>
+          <t>2,5; 8,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 2,49</t>
+          <t>-0,25; 2,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 2,18</t>
+          <t>-0,35; 2,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,13</t>
+          <t>1,87; 5,87</t>
         </is>
       </c>
     </row>
@@ -1170,34 +1170,34 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>7,88%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-0,4%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>238,59%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,88%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-0,4%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>237,93%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
           <t>185,55%</t>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>708,52%</t>
+          <t>713,59%</t>
         </is>
       </c>
     </row>
@@ -1233,37 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-43,89; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-52,27; —</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>-76,29; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>-76,23; —</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-76,28; —</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>108,18; —</t>
+          <t>95,71; —</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2,25</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-0,46</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>0,68</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>1,59</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,94</t>
+          <t>-1,37; 1,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,73</t>
+          <t>-0,98; 2,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,89</t>
+          <t>0,27; 4,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,55</t>
+          <t>-1,79; 0,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,39</t>
+          <t>-0,9; 2,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,9</t>
+          <t>-0,62; 2,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 0,73</t>
+          <t>-1,19; 0,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,84</t>
+          <t>-0,53; 1,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,26</t>
+          <t>0,31; 2,99</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>4,9%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>67,06%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>317,48%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-51,82%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>76,4%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>120,67%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>4,9%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>67,06%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>351,28%</t>
+          <t>111,88%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>217,52%</t>
+          <t>198,31%</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 742,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,18; 1240,54</t>
+          <t>-20,41; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,22 +1464,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,56; —</t>
+          <t>-57,44; 831,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 393,65</t>
+          <t>-100,0; 247,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-58,71; 569,95</t>
+          <t>-52,49; 545,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 865,58</t>
+          <t>4,24; 892,0</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>0,51</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>0,81</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>1,79</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>2,46</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,38</t>
+          <t>0,76; 3,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 1,81</t>
+          <t>-0,29; 1,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,7</t>
+          <t>1,33; 4,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,06</t>
+          <t>-0,46; 1,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,47</t>
+          <t>-0,01; 1,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,2</t>
+          <t>1,18; 3,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,86</t>
+          <t>0,51; 1,85</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,07; 1,34</t>
+          <t>0,04; 1,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,57</t>
+          <t>1,57; 3,38</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>226,84%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>66,41%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>324,27%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>56,77%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>91,04%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>269,97%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>226,84%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>66,41%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>339,77%</t>
+          <t>264,08%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>301,49%</t>
+          <t>291,23%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 269,11</t>
+          <t>48,72; 745,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 349,38</t>
+          <t>-28,3; 324,19</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>78,22; 695,68</t>
+          <t>90,64; 920,37</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>48,02; 668,37</t>
+          <t>-38,49; 260,01</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-31,82; 362,54</t>
+          <t>-9,53; 346,06</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>99,04; 952,75</t>
+          <t>85,48; 714,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>34,73; 307,24</t>
+          <t>37,91; 316,97</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3,74; 236,45</t>
+          <t>-3,66; 251,82</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>140,44; 580,07</t>
+          <t>149,64; 594,62</t>
         </is>
       </c>
     </row>
